--- a/CatData.xlsx
+++ b/CatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yungeun/Documents/iOSProject/MBTI/MBTI_CAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFB3994-60FB-724B-A616-8B2EC63287C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D56764E-A2B5-0747-AE5A-BBBBA6E1D456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1080" windowWidth="28300" windowHeight="15940" xr2:uid="{F096CE64-604B-3049-B0DD-07B6F4747D9C}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="15940" xr2:uid="{F096CE64-604B-3049-B0DD-07B6F4747D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>호기심</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>샴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 문항수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +552,7 @@
   <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -557,14 +561,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -576,9 +586,6 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
         <v>2</v>
       </c>
     </row>

--- a/CatData.xlsx
+++ b/CatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yungeun/Documents/iOSProject/MBTI/MBTI_CAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D592E12-7090-4B44-AA79-D72275E00877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D29E30-938C-AD40-8810-C8902C5059A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="1460" windowWidth="28300" windowHeight="15940" xr2:uid="{F096CE64-604B-3049-B0DD-07B6F4747D9C}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="15940" xr2:uid="{F096CE64-604B-3049-B0DD-07B6F4747D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
   <si>
     <t>호기심</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,22 @@
   </si>
   <si>
     <t>4. 나는 다른 사람에게 정을 많이 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">길고 날씬한 체형, 꼬리의 털이 길다 우아하고 자연스러운 움직임과 꼬리의 긴 털이 흔들려 발리의 전통 춤과 비슷하여 이름이 붙여졌다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동적이고 매우 영리하며 호기심이 많습니다. 사교적이고 다소 시끄럽게 우는 고양이.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,9 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
@@ -444,25 +457,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,603 +800,695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53091EBE-6C4E-D14F-B351-74A2EFE561EF}">
-  <dimension ref="B2:M45"/>
+  <dimension ref="B2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:I34"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="91.5703125" customWidth="1"/>
+    <col min="14" max="14" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:14">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="5">
+      <c r="M3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="39" customHeight="1">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="5">
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="5">
+      <c r="L5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="5">
+      <c r="L6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="5">
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="5">
+      <c r="L8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="5">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="5">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="5">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="5">
+      <c r="K12" s="9"/>
+      <c r="L12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="5">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="5">
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="5">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="5">
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="5">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="5">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="5">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="5">
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="5">
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="4">
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="5">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="5">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="5">
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="5">
+      <c r="K25" s="9"/>
+      <c r="L25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="5">
+      <c r="L26" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="5">
+      <c r="K27" s="9"/>
+      <c r="L27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="L28" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1392,196 +1500,196 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="32" spans="2:11">
-      <c r="C32" s="6" t="s">
+    <row r="32" spans="2:12">
+      <c r="C32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="9" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="3:10">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:10">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="3:10">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="3:10">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="3:10">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="3:10">
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="3:10">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="8" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="3:10">
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="3:10">
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="3:10">
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="3:10">
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="3:10">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C33:J44">
@@ -1596,12 +1704,12 @@
     <mergeCell ref="C41:I41"/>
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C37:I37"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="C33:I33"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="C35:I35"/>
     <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C37:I37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CatData.xlsx
+++ b/CatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yungeun/Documents/iOSProject/MBTI/MBTI_CAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D29E30-938C-AD40-8810-C8902C5059A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203C0900-B7E7-1344-A860-C4333E144998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="15940" xr2:uid="{F096CE64-604B-3049-B0DD-07B6F4747D9C}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="15900" xr2:uid="{F096CE64-604B-3049-B0DD-07B6F4747D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>호기심</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,10 +475,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,7 +803,7 @@
   <dimension ref="B2:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1364,7 +1364,9 @@
       <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1501,15 +1503,15 @@
       <c r="K30" s="1"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="6" t="s">
         <v>59</v>
       </c>
@@ -1683,19 +1685,25 @@
       </c>
     </row>
     <row r="45" spans="3:10">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C33:J44">
     <sortCondition ref="E4:E29"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
     <mergeCell ref="C44:I44"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C38:I38"/>
@@ -1704,12 +1712,6 @@
     <mergeCell ref="C41:I41"/>
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
